--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1843.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1843.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9326880596595645</v>
+        <v>1.475854635238647</v>
       </c>
       <c r="B1">
-        <v>0.9577968913459227</v>
+        <v>3.371496438980103</v>
       </c>
       <c r="C1">
-        <v>0.991135433600555</v>
+        <v>4.154712677001953</v>
       </c>
       <c r="D1">
-        <v>1.324844190937475</v>
+        <v>2.226433753967285</v>
       </c>
       <c r="E1">
-        <v>2.289785228741036</v>
+        <v>0.7278503775596619</v>
       </c>
     </row>
   </sheetData>
